--- a/Benchmark/OEQ_Benchmark/OCR.xlsx
+++ b/Benchmark/OEQ_Benchmark/OCR.xlsx
@@ -25,208 +25,208 @@
     <t>Reference_Answer</t>
   </si>
   <si>
-    <t>OCR_0.png</t>
-  </si>
-  <si>
-    <t>OCR_1.png</t>
-  </si>
-  <si>
-    <t>OCR_2.png</t>
-  </si>
-  <si>
-    <t>OCR_3.png</t>
-  </si>
-  <si>
-    <t>OCR_4.png</t>
-  </si>
-  <si>
-    <t>OCR_5.png</t>
-  </si>
-  <si>
-    <t>OCR_6.png</t>
-  </si>
-  <si>
-    <t>OCR_7.png</t>
-  </si>
-  <si>
-    <t>OCR_8.png</t>
-  </si>
-  <si>
-    <t>OCR_9.png</t>
-  </si>
-  <si>
-    <t>OCR_10.png</t>
-  </si>
-  <si>
-    <t>OCR_11.png</t>
-  </si>
-  <si>
-    <t>OCR_12.png</t>
-  </si>
-  <si>
-    <t>OCR_13.png</t>
-  </si>
-  <si>
-    <t>OCR_14.png</t>
-  </si>
-  <si>
-    <t>OCR_15.png</t>
-  </si>
-  <si>
-    <t>OCR_16.png</t>
-  </si>
-  <si>
-    <t>OCR_17.png</t>
-  </si>
-  <si>
-    <t>OCR_18.png</t>
-  </si>
-  <si>
-    <t>OCR_19.png</t>
-  </si>
-  <si>
-    <t>OCR_20.png</t>
-  </si>
-  <si>
-    <t>OCR_21.png</t>
-  </si>
-  <si>
-    <t>OCR_22.png</t>
-  </si>
-  <si>
-    <t>OCR_23.png</t>
-  </si>
-  <si>
-    <t>OCR_24.png</t>
-  </si>
-  <si>
-    <t>OCR_25.png</t>
-  </si>
-  <si>
-    <t>OCR_26.png</t>
-  </si>
-  <si>
-    <t>OCR_27.png</t>
-  </si>
-  <si>
-    <t>OCR_28.png</t>
-  </si>
-  <si>
-    <t>OCR_29.png</t>
-  </si>
-  <si>
-    <t>OCR_30.png</t>
-  </si>
-  <si>
-    <t>OCR_31.png</t>
-  </si>
-  <si>
-    <t>OCR_32.png</t>
-  </si>
-  <si>
-    <t>OCR_33.png</t>
-  </si>
-  <si>
-    <t>OCR_34.png</t>
-  </si>
-  <si>
-    <t>OCR_35.png</t>
-  </si>
-  <si>
-    <t>OCR_36.png</t>
-  </si>
-  <si>
-    <t>OCR_37.png</t>
-  </si>
-  <si>
-    <t>OCR_38.png</t>
-  </si>
-  <si>
-    <t>OCR_39.png</t>
-  </si>
-  <si>
-    <t>OCR_40.png</t>
-  </si>
-  <si>
-    <t>OCR_41.png</t>
-  </si>
-  <si>
-    <t>OCR_42.png</t>
-  </si>
-  <si>
-    <t>OCR_43.png</t>
-  </si>
-  <si>
-    <t>OCR_44.png</t>
-  </si>
-  <si>
-    <t>OCR_45.png</t>
-  </si>
-  <si>
-    <t>OCR_46.png</t>
-  </si>
-  <si>
-    <t>OCR_47.png</t>
-  </si>
-  <si>
-    <t>OCR_48.png</t>
-  </si>
-  <si>
-    <t>OCR_49.png</t>
-  </si>
-  <si>
-    <t>OCR_50.png</t>
-  </si>
-  <si>
-    <t>OCR_51.png</t>
-  </si>
-  <si>
-    <t>OCR_52.png</t>
-  </si>
-  <si>
-    <t>OCR_53.png</t>
-  </si>
-  <si>
-    <t>OCR_54.png</t>
-  </si>
-  <si>
-    <t>OCR_55.png</t>
-  </si>
-  <si>
-    <t>OCR_56.png</t>
-  </si>
-  <si>
-    <t>OCR_57.png</t>
-  </si>
-  <si>
-    <t>OCR_58.png</t>
-  </si>
-  <si>
-    <t>OCR_59.png</t>
-  </si>
-  <si>
-    <t>OCR_60.png</t>
-  </si>
-  <si>
-    <t>OCR_61.png</t>
-  </si>
-  <si>
-    <t>OCR_62.png</t>
-  </si>
-  <si>
-    <t>OCR_63.png</t>
-  </si>
-  <si>
-    <t>OCR_64.png</t>
-  </si>
-  <si>
-    <t>OCR_65.png</t>
-  </si>
-  <si>
-    <t>OCR_66.png</t>
-  </si>
-  <si>
-    <t>OCR_67.png</t>
+    <t>OCR/OCR_0.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_1.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_2.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_3.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_4.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_5.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_6.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_7.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_8.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_9.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_10.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_11.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_12.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_13.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_14.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_15.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_16.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_17.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_18.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_19.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_20.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_21.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_22.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_23.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_24.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_25.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_26.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_27.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_28.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_29.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_30.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_31.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_32.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_33.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_34.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_35.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_36.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_37.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_38.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_39.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_40.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_41.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_42.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_43.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_44.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_45.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_46.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_47.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_48.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_49.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_50.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_51.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_52.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_53.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_54.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_55.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_56.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_57.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_58.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_59.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_60.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_61.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_62.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_63.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_64.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_65.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_66.png</t>
+  </si>
+  <si>
+    <t>OCR/OCR_67.png</t>
   </si>
   <si>
     <t>Read the characters on the store sign in the picture.</t>

--- a/Benchmark/OEQ_Benchmark/OCR.xlsx
+++ b/Benchmark/OEQ_Benchmark/OCR.xlsx
@@ -25,208 +25,208 @@
     <t>Reference_Answer</t>
   </si>
   <si>
-    <t>OCR/OCR_0.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_1.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_2.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_3.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_4.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_5.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_6.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_7.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_8.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_9.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_10.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_11.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_12.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_13.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_14.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_15.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_16.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_17.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_18.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_19.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_20.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_21.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_22.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_23.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_24.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_25.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_26.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_27.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_28.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_29.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_30.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_31.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_32.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_33.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_34.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_35.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_36.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_37.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_38.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_39.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_40.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_41.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_42.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_43.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_44.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_45.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_46.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_47.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_48.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_49.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_50.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_51.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_52.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_53.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_54.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_55.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_56.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_57.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_58.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_59.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_60.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_61.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_62.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_63.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_64.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_65.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_66.png</t>
-  </si>
-  <si>
-    <t>OCR/OCR_67.png</t>
+    <t>OCR_0.png</t>
+  </si>
+  <si>
+    <t>OCR_1.png</t>
+  </si>
+  <si>
+    <t>OCR_2.png</t>
+  </si>
+  <si>
+    <t>OCR_3.png</t>
+  </si>
+  <si>
+    <t>OCR_4.png</t>
+  </si>
+  <si>
+    <t>OCR_5.png</t>
+  </si>
+  <si>
+    <t>OCR_6.png</t>
+  </si>
+  <si>
+    <t>OCR_7.png</t>
+  </si>
+  <si>
+    <t>OCR_8.png</t>
+  </si>
+  <si>
+    <t>OCR_9.png</t>
+  </si>
+  <si>
+    <t>OCR_10.png</t>
+  </si>
+  <si>
+    <t>OCR_11.png</t>
+  </si>
+  <si>
+    <t>OCR_12.png</t>
+  </si>
+  <si>
+    <t>OCR_13.png</t>
+  </si>
+  <si>
+    <t>OCR_14.png</t>
+  </si>
+  <si>
+    <t>OCR_15.png</t>
+  </si>
+  <si>
+    <t>OCR_16.png</t>
+  </si>
+  <si>
+    <t>OCR_17.png</t>
+  </si>
+  <si>
+    <t>OCR_18.png</t>
+  </si>
+  <si>
+    <t>OCR_19.png</t>
+  </si>
+  <si>
+    <t>OCR_20.png</t>
+  </si>
+  <si>
+    <t>OCR_21.png</t>
+  </si>
+  <si>
+    <t>OCR_22.png</t>
+  </si>
+  <si>
+    <t>OCR_23.png</t>
+  </si>
+  <si>
+    <t>OCR_24.png</t>
+  </si>
+  <si>
+    <t>OCR_25.png</t>
+  </si>
+  <si>
+    <t>OCR_26.png</t>
+  </si>
+  <si>
+    <t>OCR_27.png</t>
+  </si>
+  <si>
+    <t>OCR_28.png</t>
+  </si>
+  <si>
+    <t>OCR_29.png</t>
+  </si>
+  <si>
+    <t>OCR_30.png</t>
+  </si>
+  <si>
+    <t>OCR_31.png</t>
+  </si>
+  <si>
+    <t>OCR_32.png</t>
+  </si>
+  <si>
+    <t>OCR_33.png</t>
+  </si>
+  <si>
+    <t>OCR_34.png</t>
+  </si>
+  <si>
+    <t>OCR_35.png</t>
+  </si>
+  <si>
+    <t>OCR_36.png</t>
+  </si>
+  <si>
+    <t>OCR_37.png</t>
+  </si>
+  <si>
+    <t>OCR_38.png</t>
+  </si>
+  <si>
+    <t>OCR_39.png</t>
+  </si>
+  <si>
+    <t>OCR_40.png</t>
+  </si>
+  <si>
+    <t>OCR_41.png</t>
+  </si>
+  <si>
+    <t>OCR_42.png</t>
+  </si>
+  <si>
+    <t>OCR_43.png</t>
+  </si>
+  <si>
+    <t>OCR_44.png</t>
+  </si>
+  <si>
+    <t>OCR_45.png</t>
+  </si>
+  <si>
+    <t>OCR_46.png</t>
+  </si>
+  <si>
+    <t>OCR_47.png</t>
+  </si>
+  <si>
+    <t>OCR_48.png</t>
+  </si>
+  <si>
+    <t>OCR_49.png</t>
+  </si>
+  <si>
+    <t>OCR_50.png</t>
+  </si>
+  <si>
+    <t>OCR_51.png</t>
+  </si>
+  <si>
+    <t>OCR_52.png</t>
+  </si>
+  <si>
+    <t>OCR_53.png</t>
+  </si>
+  <si>
+    <t>OCR_54.png</t>
+  </si>
+  <si>
+    <t>OCR_55.png</t>
+  </si>
+  <si>
+    <t>OCR_56.png</t>
+  </si>
+  <si>
+    <t>OCR_57.png</t>
+  </si>
+  <si>
+    <t>OCR_58.png</t>
+  </si>
+  <si>
+    <t>OCR_59.png</t>
+  </si>
+  <si>
+    <t>OCR_60.png</t>
+  </si>
+  <si>
+    <t>OCR_61.png</t>
+  </si>
+  <si>
+    <t>OCR_62.png</t>
+  </si>
+  <si>
+    <t>OCR_63.png</t>
+  </si>
+  <si>
+    <t>OCR_64.png</t>
+  </si>
+  <si>
+    <t>OCR_65.png</t>
+  </si>
+  <si>
+    <t>OCR_66.png</t>
+  </si>
+  <si>
+    <t>OCR_67.png</t>
   </si>
   <si>
     <t>Read the characters on the store sign in the picture.</t>
